--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_Sud_Réunion/Centre_hospitalier_Sud_Réunion.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_Sud_Réunion/Centre_hospitalier_Sud_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Sud_R%C3%A9union</t>
+          <t>Centre_hospitalier_Sud_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le groupe hospitalier Sud Réunion, est un centre hospitalier français situé sur le territoire communal de Saint-Pierre, à l'île de La Réunion. Il s'agit du principal établissement sanitaire de ce département d'outre-mer de l'océan Indien avec le centre hospitalier Félix-Guyon établi à Saint-Denis. Ces deux hôpitaux constituent depuis 2007 le centre hospitalier régional de La Réunion, devenu en 2012 le centre hospitalier universitaire de La Réunion.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Sud_R%C3%A9union</t>
+          <t>Centre_hospitalier_Sud_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Contacts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adresse : GHSR BP350 97448 Saint-Pierre CEDEX
 Téléphone : standard 02 62 35 90 00</t>
